--- a/data/trans_dic/P59A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P59A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,44%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>9,23; 22,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>15,03; 31,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>13,28; 28,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>5,96; 18,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>19,5; 34,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>12,28; 24,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>9,1; 17,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>19,31; 30,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>13,92; 23,35</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,89%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>6,96; 17,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>10,45; 20,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>6,68; 16,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>13,16; 25,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>6,07; 14,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>9,13; 19,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>4,89; 12,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>14,82; 24,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>7,6; 14,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>11,49; 18,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>7,0; 13,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>14,61; 23,04</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,68%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>10,13; 23,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>6,37; 17,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>9,01; 22,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>7,57; 17,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,36</t>
+          <t>5,0; 14,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>4,73; 16,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>5,2; 14,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>9,23; 18,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>8,36; 16,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>6,79; 14,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>7,82; 16,08</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>9,77; 16,76</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,81%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>10,33; 22,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>17,28; 27,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>28,18; 43,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>17,52; 36,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>8,66; 19,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>15,08; 25,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>20,37; 33,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>11,6; 22,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>10,45; 18,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>17,55; 24,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>25,91; 36,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>16,0; 26,77</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,91%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>10,02; 25,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>5,25; 22,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>4,74; 19,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>4,75; 18,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>7,92; 25,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>9,77; 24,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>2,77; 15,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>6,36; 16,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>10,49; 21,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>9,4; 20,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>5,44; 15,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>6,72; 14,53</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,81%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>10,31; 25,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>5,73; 21,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>3,6; 13,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>7,4; 17,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>7,8; 20,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>2,07; 11,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>2,47; 10,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>9,04; 20,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>10,69; 20,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>5,03; 13,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>3,63; 10,46</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>9,62; 16,93</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,2%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>10,01; 19,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>12,84; 21,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>13,95; 23,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>12,14; 22,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>5,43; 12,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>13,57; 23,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>9,43; 16,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>12,21; 20,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>8,72; 14,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>14,3; 21,1</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>12,52; 18,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>13,23; 19,7</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,93%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>7,61; 15,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>8,15; 15,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>12,02; 20,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>8,69; 17,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>4,68; 11,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>7,76; 15,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>10,48; 17,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,31; 6,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>6,81; 11,4</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>8,75; 14,17</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>12,3; 17,69</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>5,93; 10,44</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,43%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>11,82; 15,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>13,31; 17,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>15,46; 19,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>13,88; 18,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>8,62; 12,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>12,24; 16,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>12,32; 15,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>11,44; 14,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>10,65; 13,38</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,31; 16,12</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>14,38; 17,07</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>13,19; 15,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P59A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>18,14%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,43; 30,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,28; 28,03</t>
+          <t>12,01; 26,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,58; 32,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,28; 24,59</t>
+          <t>12,46; 25,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,44; 28,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,92; 23,35</t>
+          <t>13,49; 23,29</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>18,86%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,16; 25,85</t>
+          <t>12,94; 25,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,82; 24,57</t>
+          <t>15,13; 24,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,61; 23,04</t>
+          <t>14,76; 23,38</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,67%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 17,98</t>
+          <t>7,5; 17,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,23; 18,34</t>
+          <t>9,34; 18,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 16,76</t>
+          <t>9,72; 16,73</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>18,06%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,28; 27,64</t>
+          <t>15,71; 30,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,52; 36,13</t>
+          <t>16,86; 35,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,08; 25,61</t>
+          <t>12,2; 24,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 22,99</t>
+          <t>5,36; 19,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,55; 24,88</t>
+          <t>15,41; 24,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,0; 26,77</t>
+          <t>10,32; 24,3</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>9,97%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,75; 18,48</t>
+          <t>4,74; 18,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,36; 16,42</t>
+          <t>6,59; 16,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 14,53</t>
+          <t>6,78; 14,55</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>12,73%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,4; 17,21</t>
+          <t>7,39; 17,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,04; 20,33</t>
+          <t>8,93; 20,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,62; 16,93</t>
+          <t>9,48; 16,78</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>16,05%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,14; 22,08</t>
+          <t>11,58; 21,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,21; 20,08</t>
+          <t>12,32; 20,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,23; 19,7</t>
+          <t>12,99; 19,68</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,69; 17,08</t>
+          <t>8,68; 17,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,78</t>
+          <t>2,26; 6,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,44</t>
+          <t>5,95; 10,53</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>14,42%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,88; 18,2</t>
+          <t>13,72; 18,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,44; 14,58</t>
+          <t>10,87; 14,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,19; 15,79</t>
+          <t>13,14; 15,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P59A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,23; 22,72</t>
+          <t>9,29; 23,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,43; 30,34</t>
+          <t>14,0; 29,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,03; 31,12</t>
+          <t>15,09; 30,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,01; 26,64</t>
+          <t>11,48; 26,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 18,27</t>
+          <t>5,67; 17,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,58; 32,22</t>
+          <t>14,77; 32,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,5; 34,49</t>
+          <t>19,28; 34,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,46; 25,71</t>
+          <t>12,31; 26,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,1; 17,86</t>
+          <t>9,13; 17,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,44; 28,68</t>
+          <t>17,28; 28,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,31; 30,43</t>
+          <t>19,08; 30,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,49; 23,29</t>
+          <t>13,77; 23,52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 17,18</t>
+          <t>6,83; 18,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,45; 20,85</t>
+          <t>10,5; 21,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 16,51</t>
+          <t>6,96; 16,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,94; 25,88</t>
+          <t>12,81; 25,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 14,97</t>
+          <t>6,01; 14,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 19,19</t>
+          <t>8,94; 18,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 12,25</t>
+          <t>4,78; 12,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,13; 24,99</t>
+          <t>15,26; 25,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 14,91</t>
+          <t>7,35; 14,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,49; 18,81</t>
+          <t>11,11; 18,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 13,26</t>
+          <t>6,78; 13,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,76; 23,38</t>
+          <t>15,05; 23,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,13; 23,97</t>
+          <t>9,88; 23,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 17,4</t>
+          <t>6,77; 16,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,01; 22,31</t>
+          <t>8,75; 21,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 17,88</t>
+          <t>7,31; 17,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 14,59</t>
+          <t>4,99; 15,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 16,35</t>
+          <t>4,8; 16,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 14,78</t>
+          <t>5,29; 15,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 18,55</t>
+          <t>9,36; 18,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 16,54</t>
+          <t>8,69; 16,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 14,65</t>
+          <t>7,13; 15,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 16,08</t>
+          <t>7,99; 15,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 16,73</t>
+          <t>9,85; 16,62</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,33; 22,58</t>
+          <t>9,45; 21,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,71; 30,37</t>
+          <t>15,53; 30,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,18; 43,22</t>
+          <t>28,02; 43,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,86; 35,06</t>
+          <t>17,41; 35,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 19,52</t>
+          <t>8,95; 20,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,2; 24,95</t>
+          <t>12,48; 25,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,37; 33,75</t>
+          <t>20,09; 33,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 19,52</t>
+          <t>5,13; 19,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,45; 18,44</t>
+          <t>11,1; 18,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,41; 24,75</t>
+          <t>15,15; 24,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,91; 36,8</t>
+          <t>26,16; 36,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 24,3</t>
+          <t>10,34; 24,11</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,02; 25,18</t>
+          <t>10,11; 24,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 22,29</t>
+          <t>5,32; 21,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 19,31</t>
+          <t>4,91; 19,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 18,46</t>
+          <t>4,37; 16,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,92; 25,63</t>
+          <t>8,64; 24,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,77; 24,67</t>
+          <t>9,25; 25,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 15,29</t>
+          <t>2,83; 15,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 16,59</t>
+          <t>6,0; 16,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,49; 21,76</t>
+          <t>10,99; 21,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,4; 20,43</t>
+          <t>9,53; 20,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 15,31</t>
+          <t>5,58; 14,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,55</t>
+          <t>6,81; 14,76</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,31; 25,45</t>
+          <t>10,26; 25,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,73; 21,21</t>
+          <t>4,98; 19,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 13,78</t>
+          <t>3,5; 13,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,39; 17,44</t>
+          <t>7,61; 18,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,8; 20,45</t>
+          <t>7,53; 19,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 11,49</t>
+          <t>2,75; 12,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 10,92</t>
+          <t>2,54; 11,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,93; 20,16</t>
+          <t>8,17; 19,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,69; 20,1</t>
+          <t>10,42; 20,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,03; 13,88</t>
+          <t>4,99; 13,58</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 10,46</t>
+          <t>3,95; 10,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,48; 16,78</t>
+          <t>9,33; 17,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,01; 19,61</t>
+          <t>9,71; 18,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,84; 21,98</t>
+          <t>12,79; 22,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,95; 23,36</t>
+          <t>13,96; 22,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,58; 21,73</t>
+          <t>11,48; 21,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,74</t>
+          <t>5,54; 13,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,57; 23,12</t>
+          <t>13,95; 23,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,43; 16,21</t>
+          <t>9,32; 16,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,32; 20,12</t>
+          <t>12,08; 19,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,72; 14,3</t>
+          <t>8,83; 14,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,3; 21,1</t>
+          <t>14,35; 21,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,52; 18,03</t>
+          <t>12,58; 18,08</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,99; 19,68</t>
+          <t>13,01; 19,68</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,61; 15,13</t>
+          <t>7,41; 14,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,15; 15,8</t>
+          <t>8,4; 16,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,02; 20,09</t>
+          <t>12,14; 19,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,68; 17,12</t>
+          <t>9,0; 17,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,68; 11,18</t>
+          <t>4,7; 11,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,76; 15,12</t>
+          <t>7,99; 15,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,48; 17,45</t>
+          <t>10,79; 17,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,62</t>
+          <t>2,37; 6,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,4</t>
+          <t>6,96; 11,68</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,75; 14,17</t>
+          <t>8,91; 14,62</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12,3; 17,69</t>
+          <t>12,3; 18,04</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,95; 10,53</t>
+          <t>5,79; 10,4</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,82; 15,82</t>
+          <t>11,76; 15,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,31; 17,23</t>
+          <t>13,58; 17,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,46; 19,46</t>
+          <t>15,55; 19,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,72; 18,09</t>
+          <t>13,79; 18,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,62; 12,06</t>
+          <t>8,6; 11,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,24; 16,4</t>
+          <t>12,44; 16,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,32; 15,97</t>
+          <t>12,43; 15,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,71</t>
+          <t>11,05; 14,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10,65; 13,38</t>
+          <t>10,55; 13,19</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>13,31; 16,12</t>
+          <t>13,34; 16,13</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>14,38; 17,07</t>
+          <t>14,36; 17,06</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,14; 15,91</t>
+          <t>13,02; 16,07</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que vive actualmente en pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17376</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28461</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27975</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29487</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13135</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25685</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37312</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24522</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30511</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>54146</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>65287</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>54009</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10681; 26482</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18178; 38411</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18908; 38441</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18854; 43066</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6812; 21519</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16565; 36849</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27209; 48812</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16431; 35415</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>21447; 42224</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>41830; 68528</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>50814; 80539</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40994; 70019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21508</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29654</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22184</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>50811</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19496</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>27030</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16896</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>49895</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>41004</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>56684</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>39080</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>100706</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12835; 33991</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20157; 40769</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14146; 33836</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>36126; 70774</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11829; 29261</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17686; 37070</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9847; 26276</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>38464; 64002</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28293; 54335</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>43319; 73201</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27719; 53561</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>80346; 127333</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18103</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15322</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16896</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19027</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12814</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13101</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13628</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25690</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>30917</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>28422</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30524</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44716</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11460; 26952</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9367; 23190</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9951; 24587</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11862; 28482</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6908; 21423</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6740; 22988</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7878; 22557</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17844; 34511</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22092; 41970</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19856; 41937</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>20981; 40829</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>34760; 58660</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21831</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>33833</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>58919</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>45405</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>23047</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26846</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>46745</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>34666</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>44878</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>60678</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>105664</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>80071</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13442; 30813</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24022; 46809</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>46432; 71245</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>30343; 62630</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>15365; 34614</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18794; 38302</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>35663; 59774</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>13819; 52563</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>34837; 59372</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>46265; 75601</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>89787; 124115</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>45869; 106925</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15661</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9952</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8967</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7996</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12081</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15023</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5548</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9646</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>27742</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>24974</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14515</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17643</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9597; 23368</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4511; 18298</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4199; 16284</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3776; 14685</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7057; 19650</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8489; 23459</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1986; 10815</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5431; 14702</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19418; 38106</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16831; 36656</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8687; 23177</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12045; 26119</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>18826</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11912</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7746</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16905</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>15226</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6083</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6511</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18308</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>34052</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>17996</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>14256</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>35213</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11338; 28320</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5171; 20754</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3657; 14352</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10766; 25704</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8944; 23448</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2895; 13207</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2799; 13022</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11041; 26050</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>23878; 46002</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10444; 28407</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>8478; 22958</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>25804; 47230</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>31184</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>45369</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>58150</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>50887</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>22104</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>51615</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>47516</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>51691</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>53288</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>96984</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>105666</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>102578</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>21413; 41713</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>34209; 60078</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>44711; 72692</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>35976; 68238</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>13610; 31994</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>40225; 67561</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>35369; 63298</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>39382; 64517</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>41144; 69552</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>79751; 116802</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>88015; 126567</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>83196; 125820</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>31791</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>37081</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>54427</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>37988</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>23474</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>37356</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>50041</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>14579</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>55265</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>74437</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>104468</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>52568</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>22325; 44253</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>26254; 51877</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>41700; 68374</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>27496; 52904</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>14548; 35098</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>26947; 51989</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>38810; 63758</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>8411; 23491</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>42495; 71330</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>57872; 95032</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>86506; 126860</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>38261; 68725</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>176279</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>211582</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>255263</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>258506</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>141378</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>202740</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>224197</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>228998</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>317657</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>414321</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>479461</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>487504</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>151556; 204574</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>187924; 245821</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>227296; 286069</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>224744; 295040</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>118904; 164076</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>177179; 229468</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>197988; 253637</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>193613; 261573</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>281649; 352236</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>374364; 452819</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>438777; 521238</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>440373; 543579</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>